--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.5791</v>
+        <v>16.5381</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.3913</v>
+        <v>-11.5527</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.119</v>
+        <v>-14.074</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.0542</v>
+        <v>-13.7103</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.04780000000001</v>
+        <v>18.09320000000001</v>
       </c>
     </row>
     <row r="19">
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.065</v>
+        <v>-12.65300000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.30860000000001</v>
+        <v>-12.73400000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.597</v>
+        <v>16.4777</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.0519</v>
+        <v>-11.5923</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.06650000000001</v>
+        <v>16.9697</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.64290000000001</v>
+        <v>-12.45410000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.73099999999998</v>
+        <v>16.78519999999999</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.92040000000001</v>
+        <v>-10.93080000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.148</v>
+        <v>16.0967</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.7411</v>
+        <v>16.6107</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.2303</v>
+        <v>16.1339</v>
       </c>
     </row>
     <row r="40">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.85590000000001</v>
+        <v>-12.4321</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.3089</v>
+        <v>16.359</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.29940000000001</v>
+        <v>17.3917</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.96640000000001</v>
+        <v>17.0861</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.9286</v>
+        <v>16.87210000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.3868</v>
+        <v>-10.32020000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.44970000000001</v>
+        <v>16.56050000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.38199999999999</v>
+        <v>16.4041</v>
       </c>
     </row>
     <row r="57">
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.29599999999999</v>
+        <v>-14.10659999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.8654</v>
+        <v>16.911</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.8404</v>
+        <v>-12.6998</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.773</v>
+        <v>16.00440000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.8004</v>
+        <v>-12.7495</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.33219999999999</v>
+        <v>-11.20979999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.37490000000001</v>
+        <v>17.49030000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.82239999999999</v>
+        <v>16.95689999999998</v>
       </c>
     </row>
     <row r="75">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.14910000000001</v>
+        <v>-11.38600000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.76779999999999</v>
+        <v>-13.9005</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.33560000000002</v>
+        <v>17.29520000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.31859999999998</v>
+        <v>16.51529999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.2378</v>
+        <v>-10.3218</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.71320000000002</v>
+        <v>18.79640000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.96500000000001</v>
+        <v>-12.1156</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.4444</v>
+        <v>-13.4225</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
